--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Switch" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,67 +435,188 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Excel file version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>v2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ieee13pv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Power Base (MVA)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>From Bus</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>To Bus</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>brkr</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>brkr1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Excel file version</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>v2.0</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xf1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>fuse1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ieee13x</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>671692</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Power Base (MVA)</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sect1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>rec1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Switch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Voltage Source" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bus" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Switch" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -489,6 +491,680 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A13:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Voltage (pu)</t>
+        </is>
+      </c>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Angle (deg)</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr">
+        <is>
+          <t>Rs (pu)</t>
+        </is>
+      </c>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>Xs (pu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>sourcebus</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>115000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.001212678109640832</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.001212678109640832</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Base Voltage (V)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Initial Vmag</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unit (V, pu)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Angle (deg)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>633</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>480</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>670</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>675</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>680</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>brkr</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>208</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>rg60</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sourcebus</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>SLACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tap</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>xf1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4160</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -491,7 +491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A13:F14"/>
+  <dimension ref="A11:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,62 +499,258 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Positive Sequence Voltage Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Voltage (pu)</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Angle (deg)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Rs (pu)</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Xs (pu)</t>
+        </is>
+      </c>
+    </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>End of Positive Sequence Voltage Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Single-Phase Voltage Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>Bus</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Voltage (pu)</t>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Voltage (V)</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>Angle (deg)</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
-        <is>
-          <t>Rs (pu)</t>
-        </is>
-      </c>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Xs (pu)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Rs (Ohm)</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Xs (Ohm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>End of Single-Phase Voltage Source</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Three-Phase Voltage Source with Short-Circuit Level Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>kV (ph-ph RMS)</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Angle_a (deg)</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>SC1ph (MVA)</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>SC3ph (MVA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>End of Three-Phase Voltage Source with Short-Circuit Level Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Three-Phase Voltage Source with Sequential Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>kV (ph-ph RMS)</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Angle_a (deg)</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>R1 (Ohm)</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>X1 (Ohm)</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>R0 (Ohm)</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>X0 (Ohm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>source</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>sourcebus</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>115000</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>source</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.001212678109640832</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.001212678109640832</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>sourcebus_A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>sourcebus_B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sourcebus_C</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>115</v>
+      </c>
+      <c r="F25" t="n">
+        <v>30.0000002521989</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.16037668</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.64150673</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.17960358</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.53881075</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>End of Three-Phase Voltage Source with Sequential Data</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -568,7 +764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,11 +807,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>611_C</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -626,7 +822,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -637,11 +833,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -652,7 +848,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -663,11 +859,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +874,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -689,11 +885,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>480</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -708,18 +904,18 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>PQ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -730,7 +926,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -741,11 +937,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -756,7 +952,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -767,11 +963,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -793,11 +989,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4160</v>
+        <v>277.1281292110204</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -808,7 +1004,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -819,11 +1015,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4160</v>
+        <v>277.1281292110204</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -834,7 +1030,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -845,11 +1041,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4160</v>
+        <v>277.1281292110204</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -871,11 +1067,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>645_B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -886,7 +1082,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -897,11 +1093,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>645_C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -912,7 +1108,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -923,11 +1119,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>646_B</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -938,7 +1134,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -949,11 +1145,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>646_C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -964,7 +1160,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -975,11 +1171,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>brkr</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -990,7 +1186,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1001,11 +1197,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1016,22 +1212,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PV</t>
+          <t>PQ</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1053,11 +1249,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rg60</t>
+          <t>652_A</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -1079,11 +1275,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sourcebus</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115000</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1094,22 +1290,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SLACK</t>
+          <t>PQ</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tap</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -1120,7 +1316,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1131,11 +1327,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>xf1</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4160</v>
+        <v>2401.777119828843</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -1149,6 +1345,838 @@
         <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>671_B</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>120</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>675_B</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>675_C</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>120</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>675_A</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>680_B</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>680_C</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>120</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>680_A</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>684_C</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>120</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>684_A</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>692_B</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>692_C</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>120</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>692_A</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>brkr_B</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>brkr_C</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>120</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>brkr_A</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>house_s1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>120.0888559914422</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>house_s2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>120.0888559914422</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>180</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>mid_B</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>mid_C</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>120</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mid_A</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>rg60_B</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>rg60_C</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>120</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>rg60_A</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sourcebus_B</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>66395.28095680696</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SLACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sourcebus_C</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>66395.28095680696</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>120</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SLACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sourcebus_A</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>66395.28095680696</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SLACK</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>tap_C</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>120</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>xf1_B</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>xf1_C</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>120</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>xf1_A</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2401.777119828843</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>PQ</t>
         </is>
@@ -1165,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,17 +2226,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>brkr</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brkr1</t>
+          <t>brkr1_A</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1218,17 +2246,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xf1</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fuse1</t>
+          <t>brkr1_B</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1238,17 +2266,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>671692</t>
+          <t>brkr1_C</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1258,17 +2286,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tap</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sect1</t>
+          <t>fuse1_A</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1278,20 +2306,180 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mid</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rec1</t>
+          <t>fuse1_B</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>633_C</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>xf1_C</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fuse1_C</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>692_A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>671692_A</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>671_B</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>692_B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>671692_B</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>692_C</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>671692_C</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>684_C</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>tap_C</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>sect1_C</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>632_A</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mid_A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>rec1_A</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>632_B</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mid_B</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>rec1_B</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>632_C</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mid_C</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>rec1_C</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -9,8 +9,12 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="General" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Voltage Source" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bus" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Switch" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Load" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Shunt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Line" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transformer" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bus" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Switch" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -764,6 +768,1636 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A11:R33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Positive-Sequence Constant Imepedance Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>P (MW)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Q (MVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>End of Positive Sequence Constant Imepedance Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Positive-Sequence Constant Power Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>P (MW)</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Q (MVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>End of Positive Sequence Constant Power Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Positive-Sequence Constant Current Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>P (MW)</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>Q (MVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>End of Positive Sequence Constant Current Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Single-Phase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>V (kV)</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Bandwidth (pu)</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>K_z</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>K_i</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>K_p</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>Use initial voltage?</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>End of SinglePhase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Two-Phase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>V (kV)</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Bandwidth (pu)</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>K_z</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>K_i</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>K_p</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>Use initial voltage?</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="N28" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>End of TwoPhase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Three-Phase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>V (kV)</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Bandwidth (pu)</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>K_z</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>K_i</t>
+        </is>
+      </c>
+      <c r="H32" s="1" t="inlineStr">
+        <is>
+          <t>K_p</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>Use initial voltage?</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="L32" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="N32" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="O32" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="P32" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+      <c r="Q32" s="1" t="inlineStr">
+        <is>
+          <t>P3 (kW)</t>
+        </is>
+      </c>
+      <c r="R32" s="1" t="inlineStr">
+        <is>
+          <t>Q3 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>End of ThreePhase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Positive Sequence Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Bus</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>P (MW)</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>Q (MVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>End of Positive Sequence Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Single-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>kV (ph-gr RMS)</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>End of Single-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Two-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Status1</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Status2</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>kV (ph-gr RMS)</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>End of Two-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Three-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Status1</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Status2</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Status3</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>kV (ph-gr RMS)</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>P3 (kW)</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>Q3 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>End of Three-Phase Shunt</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:AA29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Positive-Sequence Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>From bus</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>To bus</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>R (pu)</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>X (pu)</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>B (pu)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>End of Positive-Sequence Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Single-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>r11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>x11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>b11 (uS/length_unit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>End of Single-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Two-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>From2</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>To2</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>r11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>x11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>r21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>x21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>r22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>x22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>b11 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>b21 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>b22 (uS/length_unit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>End of Two-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Three-Phase Line with Full Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>From2</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>From3</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>To2</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>To3</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>r11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>x11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>r21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>x21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>r22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>x22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="P24" s="1" t="inlineStr">
+        <is>
+          <t>r31 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr">
+        <is>
+          <t>x31 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="inlineStr">
+        <is>
+          <t>r32 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t>x32 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="T24" s="1" t="inlineStr">
+        <is>
+          <t>r33 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>x33 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="V24" s="1" t="inlineStr">
+        <is>
+          <t>b11 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="W24" s="1" t="inlineStr">
+        <is>
+          <t>b21 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="X24" s="1" t="inlineStr">
+        <is>
+          <t>b22 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="Y24" s="1" t="inlineStr">
+        <is>
+          <t>b31 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="Z24" s="1" t="inlineStr">
+        <is>
+          <t>b32 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="AA24" s="1" t="inlineStr">
+        <is>
+          <t>b33 (uS/length_unit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>End of Three-Phase Line with Full Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Three-Phase Line with Sequential Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>From2</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>From3</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
+          <t>To2</t>
+        </is>
+      </c>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>To3</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>R0 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>X0 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="L28" s="1" t="inlineStr">
+        <is>
+          <t>R1 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>X1 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="N28" s="1" t="inlineStr">
+        <is>
+          <t>B0 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="O28" s="1" t="inlineStr">
+        <is>
+          <t>B1 (uS/length_unit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>End of Three-Phase Line with Sequential Data</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A11:AA25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Positive-Sequence 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>From bus</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>To bus</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>R (pu)</t>
+        </is>
+      </c>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>Xl (pu)</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>Gmag (pu)</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>Bmag (pu)</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W1 (pu)</t>
+        </is>
+      </c>
+      <c r="J12" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W2 (pu)</t>
+        </is>
+      </c>
+      <c r="K12" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift (deg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>End of Positive-Sequence 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Positive-Sequence 3W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>R_12 (pu)</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_12 (pu)</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>R_23 (pu)</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_23 (pu)</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>R_31 (pu)</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_31 (pu)</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>Gmag (pu)</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>Bmag (pu)</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W1 (pu)</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W2 (pu)</t>
+        </is>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W3 (pu)</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W1 (deg)</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W2 (deg)</t>
+        </is>
+      </c>
+      <c r="S16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W3 (deg)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>End of Positive-Sequence 3W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Multiphase 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T20" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V20" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t>X (pu)</t>
+        </is>
+      </c>
+      <c r="X20" s="1" t="inlineStr">
+        <is>
+          <t>RW1 (pu)</t>
+        </is>
+      </c>
+      <c r="Y20" s="1" t="inlineStr">
+        <is>
+          <t>RW2</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>End of Multiphase 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Multiphase 2W Transformer with Mutual Impedance</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H24" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L24" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N24" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O24" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P24" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q24" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R24" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S24" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T24" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V24" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W24" s="1" t="inlineStr">
+        <is>
+          <t>Z0 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="X24" s="1" t="inlineStr">
+        <is>
+          <t>Z1 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="Y24" s="1" t="inlineStr">
+        <is>
+          <t>X0/R0</t>
+        </is>
+      </c>
+      <c r="Z24" s="1" t="inlineStr">
+        <is>
+          <t>X1/R1</t>
+        </is>
+      </c>
+      <c r="AA24" s="1" t="inlineStr">
+        <is>
+          <t>No Load Loss (kW)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>End of Multiphase 2W Transformer with Mutual Impedance</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -859,7 +2493,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_C</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -874,7 +2508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -885,7 +2519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -900,7 +2534,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -937,7 +2571,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_C</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -952,7 +2586,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -963,7 +2597,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -978,7 +2612,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1015,7 +2649,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_C</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1030,7 +2664,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1041,7 +2675,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1056,7 +2690,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1197,7 +2831,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_C</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1212,7 +2846,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1223,7 +2857,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1238,7 +2872,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1301,7 +2935,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_C</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1316,7 +2950,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1327,7 +2961,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1342,7 +2976,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1379,7 +3013,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_C</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1394,7 +3028,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1405,7 +3039,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_C</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1420,7 +3054,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1457,7 +3091,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_C</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1472,7 +3106,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1483,7 +3117,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1498,7 +3132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1535,7 +3169,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_C</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1550,7 +3184,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1561,7 +3195,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1576,7 +3210,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1587,7 +3221,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>684_C</t>
+          <t>684_A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1602,7 +3236,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1613,7 +3247,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684_A</t>
+          <t>684_C</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1628,7 +3262,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1665,7 +3299,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1680,7 +3314,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1691,7 +3325,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1706,7 +3340,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1743,7 +3377,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_C</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1758,7 +3392,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1769,7 +3403,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1784,7 +3418,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1795,7 +3429,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1810,7 +3444,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1821,7 +3455,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1836,7 +3470,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1873,7 +3507,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_C</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1888,7 +3522,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1899,7 +3533,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_C</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1914,7 +3548,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1951,7 +3585,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_C</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1966,7 +3600,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1977,7 +3611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_C</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1992,7 +3626,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2029,7 +3663,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_C</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2044,7 +3678,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2055,7 +3689,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_C</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2070,7 +3704,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -2133,7 +3767,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_C</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2148,7 +3782,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -2159,7 +3793,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_C</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2174,7 +3808,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -2187,7 +3821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -2493,7 +2493,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2508,7 +2508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_C</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_C</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_C</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2831,7 +2831,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_C</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2950,7 +2950,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_C</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2976,7 +2976,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_C</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_C</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3054,7 +3054,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_C</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_C</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3169,7 +3169,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_C</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_C</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>684_A</t>
+          <t>684_C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684_C</t>
+          <t>684_A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3299,7 +3299,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3314,7 +3314,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3325,7 +3325,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3340,7 +3340,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_C</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3418,7 +3418,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_C</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_C</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3585,7 +3585,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_C</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3611,7 +3611,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_C</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_C</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3678,7 +3678,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_C</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3704,7 +3704,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_C</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3793,7 +3793,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_C</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3808,7 +3808,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -768,7 +768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:R33"/>
+  <dimension ref="A11:R53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -971,202 +971,1181 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>End of SinglePhase ZIP Load</t>
-        </is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>611_C</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>170</v>
+      </c>
+      <c r="L25" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>634a</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>634_A</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>160</v>
+      </c>
+      <c r="L26" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Two-Phase ZIP Load</t>
-        </is>
+          <t>634b</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>634_B</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>120</v>
+      </c>
+      <c r="L27" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>V (kV)</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>Bandwidth (pu)</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>K_z</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>K_i</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>K_p</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>Use initial voltage?</t>
-        </is>
-      </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>Bus1</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
-        <is>
-          <t>Bus2</t>
-        </is>
-      </c>
-      <c r="L28" s="1" t="inlineStr">
-        <is>
-          <t>P1 (kW)</t>
-        </is>
-      </c>
-      <c r="M28" s="1" t="inlineStr">
-        <is>
-          <t>Q1 (kVAr)</t>
-        </is>
-      </c>
-      <c r="N28" s="1" t="inlineStr">
-        <is>
-          <t>P2 (kW)</t>
-        </is>
-      </c>
-      <c r="O28" s="1" t="inlineStr">
-        <is>
-          <t>Q2 (kVAr)</t>
-        </is>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>634c</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>100</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>634_C</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>120</v>
+      </c>
+      <c r="L28" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>End of TwoPhase ZIP Load</t>
-        </is>
+          <t>645</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>100</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>645_B</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>170</v>
+      </c>
+      <c r="L29" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>100</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>646_B</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>230</v>
+      </c>
+      <c r="L30" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Three-Phase ZIP Load</t>
-        </is>
+          <t>652</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>652_A</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>128</v>
+      </c>
+      <c r="L31" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>V (kV)</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>Bandwidth (pu)</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type</t>
-        </is>
-      </c>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>K_z</t>
-        </is>
-      </c>
-      <c r="G32" s="1" t="inlineStr">
-        <is>
-          <t>K_i</t>
-        </is>
-      </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>K_p</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
-        <is>
-          <t>Use initial voltage?</t>
-        </is>
-      </c>
-      <c r="J32" s="1" t="inlineStr">
-        <is>
-          <t>Bus1</t>
-        </is>
-      </c>
-      <c r="K32" s="1" t="inlineStr">
-        <is>
-          <t>Bus2</t>
-        </is>
-      </c>
-      <c r="L32" s="1" t="inlineStr">
-        <is>
-          <t>Bus3</t>
-        </is>
-      </c>
-      <c r="M32" s="1" t="inlineStr">
-        <is>
-          <t>P1 (kW)</t>
-        </is>
-      </c>
-      <c r="N32" s="1" t="inlineStr">
-        <is>
-          <t>Q1 (kVAr)</t>
-        </is>
-      </c>
-      <c r="O32" s="1" t="inlineStr">
-        <is>
-          <t>P2 (kW)</t>
-        </is>
-      </c>
-      <c r="P32" s="1" t="inlineStr">
-        <is>
-          <t>Q2 (kVAr)</t>
-        </is>
-      </c>
-      <c r="Q32" s="1" t="inlineStr">
-        <is>
-          <t>P3 (kW)</t>
-        </is>
-      </c>
-      <c r="R32" s="1" t="inlineStr">
-        <is>
-          <t>Q3 (kVAr)</t>
-        </is>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>670a</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>670_A</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>17</v>
+      </c>
+      <c r="L32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
+        <is>
+          <t>670b</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>670_B</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>66</v>
+      </c>
+      <c r="L33" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>670c</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>670_C</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>117</v>
+      </c>
+      <c r="L34" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>675a</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>675_A</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>485</v>
+      </c>
+      <c r="L35" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>675b</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>675_B</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>68</v>
+      </c>
+      <c r="L36" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>675c</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>675_C</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>290</v>
+      </c>
+      <c r="L37" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>100</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>692_C</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>170</v>
+      </c>
+      <c r="L38" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>End of SinglePhase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Two-Phase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>V (kV)</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Bandwidth (pu)</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>K_z</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>K_i</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>K_p</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>Use initial voltage?</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="L42" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="N42" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="O42" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>house</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>100</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>house_s1</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>house_s2</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.54936085</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.54936085</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>pv_house</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>100</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>house_s1</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>house_s2</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>bat_house</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>house_s1</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>house_s2</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>End of TwoPhase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Three-Phase ZIP Load</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr">
+        <is>
+          <t>V (kV)</t>
+        </is>
+      </c>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Bandwidth (pu)</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>K_z</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>K_i</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>K_p</t>
+        </is>
+      </c>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>Use initial voltage?</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="L49" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>P1 (kW)</t>
+        </is>
+      </c>
+      <c r="N49" s="1" t="inlineStr">
+        <is>
+          <t>Q1 (kVAr)</t>
+        </is>
+      </c>
+      <c r="O49" s="1" t="inlineStr">
+        <is>
+          <t>P2 (kW)</t>
+        </is>
+      </c>
+      <c r="P49" s="1" t="inlineStr">
+        <is>
+          <t>Q2 (kVAr)</t>
+        </is>
+      </c>
+      <c r="Q49" s="1" t="inlineStr">
+        <is>
+          <t>P3 (kW)</t>
+        </is>
+      </c>
+      <c r="R49" s="1" t="inlineStr">
+        <is>
+          <t>Q3 (kVAr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>671_B</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>385</v>
+      </c>
+      <c r="N50" t="n">
+        <v>220</v>
+      </c>
+      <c r="O50" t="n">
+        <v>385</v>
+      </c>
+      <c r="P50" t="n">
+        <v>220</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>385</v>
+      </c>
+      <c r="R50" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>pv_school</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>100</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>634_A</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>634_B</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>634_C</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>-80</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-80</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-80</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>bat_school</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>100</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>634_A</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>634_B</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>634_C</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>End of ThreePhase ZIP Load</t>
         </is>
@@ -1183,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:N25"/>
+  <dimension ref="A11:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,157 +2253,233 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>cap2</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>611_C</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>99.99999935999998</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>End of Single-Phase Shunt</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Two-Phase Shunt</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="B21" s="1" t="inlineStr">
         <is>
           <t>Status1</t>
         </is>
       </c>
-      <c r="C20" s="1" t="inlineStr">
+      <c r="C21" s="1" t="inlineStr">
         <is>
           <t>Status2</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D21" s="1" t="inlineStr">
         <is>
           <t>kV (ph-gr RMS)</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E21" s="1" t="inlineStr">
         <is>
           <t>Bus1</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F21" s="1" t="inlineStr">
         <is>
           <t>Bus2</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G21" s="1" t="inlineStr">
         <is>
           <t>P1 (kW)</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H21" s="1" t="inlineStr">
         <is>
           <t>Q1 (kVAr)</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I21" s="1" t="inlineStr">
         <is>
           <t>P2 (kW)</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J21" s="1" t="inlineStr">
         <is>
           <t>Q2 (kVAr)</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>End of Two-Phase Shunt</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Three-Phase Shunt</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>Status1</t>
         </is>
       </c>
-      <c r="C24" s="1" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>Status2</t>
         </is>
       </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>Status3</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E25" s="1" t="inlineStr">
         <is>
           <t>kV (ph-gr RMS)</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>Bus1</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>Bus2</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
+      <c r="H25" s="1" t="inlineStr">
         <is>
           <t>Bus3</t>
         </is>
       </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>P1 (kW)</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J25" s="1" t="inlineStr">
         <is>
           <t>Q1 (kVAr)</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K25" s="1" t="inlineStr">
         <is>
           <t>P2 (kW)</t>
         </is>
       </c>
-      <c r="L24" s="1" t="inlineStr">
+      <c r="L25" s="1" t="inlineStr">
         <is>
           <t>Q2 (kVAr)</t>
         </is>
       </c>
-      <c r="M24" s="1" t="inlineStr">
+      <c r="M25" s="1" t="inlineStr">
         <is>
           <t>P3 (kW)</t>
         </is>
       </c>
-      <c r="N24" s="1" t="inlineStr">
+      <c r="N25" s="1" t="inlineStr">
         <is>
           <t>Q3 (kVAr)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>cap1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.401777119828843</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>675_A</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>675_B</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>675_C</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>200.0000000682666</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>200.0000000682666</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>200.0000000682666</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>End of Three-Phase Shunt</t>
         </is>
@@ -2467,7 +3522,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>632_B</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2482,7 +3537,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -2493,7 +3548,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_C</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2508,7 +3563,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -2519,7 +3574,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2534,7 +3589,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -2545,7 +3600,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>633_B</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2560,7 +3615,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2571,7 +3626,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_C</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2586,7 +3641,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -2597,7 +3652,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2612,7 +3667,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2623,7 +3678,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>634_B</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2638,7 +3693,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -2649,7 +3704,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_C</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2664,7 +3719,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -2675,7 +3730,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2690,7 +3745,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -2701,7 +3756,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>645_B</t>
+          <t>645_C</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2716,7 +3771,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -2727,7 +3782,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>645_C</t>
+          <t>645_B</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2742,7 +3797,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2753,7 +3808,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>646_B</t>
+          <t>646_C</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2768,7 +3823,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -2779,7 +3834,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>646_C</t>
+          <t>646_B</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2794,7 +3849,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -2805,7 +3860,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>650_B</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2820,7 +3875,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -2831,7 +3886,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_C</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2846,7 +3901,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -2857,7 +3912,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2872,7 +3927,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -2909,7 +3964,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>670_B</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2924,7 +3979,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2935,7 +3990,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_C</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2950,7 +4005,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2961,7 +4016,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2976,7 +4031,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2987,7 +4042,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>671_B</t>
+          <t>671_C</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3002,7 +4057,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -3013,7 +4068,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_C</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3028,7 +4083,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -3039,7 +4094,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3054,7 +4109,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -3065,7 +4120,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>675_B</t>
+          <t>675_C</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3080,7 +4135,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -3091,7 +4146,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_C</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3106,7 +4161,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -3117,7 +4172,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3132,7 +4187,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -3143,7 +4198,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>680_B</t>
+          <t>680_C</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3158,7 +4213,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -3169,7 +4224,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_C</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3184,7 +4239,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -3195,7 +4250,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3210,7 +4265,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -3273,7 +4328,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>692_B</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -3288,7 +4343,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3299,7 +4354,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -3314,7 +4369,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3325,7 +4380,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_B</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -3340,7 +4395,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3351,7 +4406,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>brkr_B</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -3366,7 +4421,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3377,7 +4432,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_C</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3392,7 +4447,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3403,7 +4458,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3418,7 +4473,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3429,7 +4484,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3444,7 +4499,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3455,7 +4510,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3470,7 +4525,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3481,7 +4536,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mid_B</t>
+          <t>mid_C</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3496,7 +4551,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -3507,7 +4562,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_C</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3522,7 +4577,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -3533,7 +4588,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3548,7 +4603,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3559,7 +4614,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rg60_B</t>
+          <t>rg60_C</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3574,7 +4629,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3585,7 +4640,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_C</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3600,7 +4655,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3611,7 +4666,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_B</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3626,7 +4681,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3637,7 +4692,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sourcebus_B</t>
+          <t>sourcebus_C</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3652,7 +4707,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3663,7 +4718,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_C</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3678,7 +4733,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3689,7 +4744,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_B</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3704,7 +4759,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3741,7 +4796,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xf1_B</t>
+          <t>xf1_C</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3756,7 +4811,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3767,7 +4822,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_C</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3782,7 +4837,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3793,7 +4848,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3808,7 +4863,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -2496,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:AA29"/>
+  <dimension ref="A11:AA40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2607,343 +2607,1169 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>End of Single-Phase Line</t>
-        </is>
+          <t>684611</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>91.44</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>tap_C</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>611_C</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00082592659</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.00083729768</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>684652</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>243.84</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>684_A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>652_A</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00083419083</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003183906</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.055283335</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Two-Phase Line</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>From1</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>From2</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>To1</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>To2</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>r11 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>x11 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>r21 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t>x21 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="L20" s="1" t="inlineStr">
-        <is>
-          <t>r22 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="M20" s="1" t="inlineStr">
-        <is>
-          <t>x22 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>b11 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="O20" s="1" t="inlineStr">
-        <is>
-          <t>b21 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="P20" s="1" t="inlineStr">
-        <is>
-          <t>b22 (uS/length_unit)</t>
+          <t>End of Single-Phase Line</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>End of Two-Phase Line</t>
+          <t>Two-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>From2</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>To2</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>r11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>x11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>r21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>x21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>r22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>x22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>b11 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>b21 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="P22" s="1" t="inlineStr">
+        <is>
+          <t>b22 (uS/length_unit)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Three-Phase Line with Full Data</t>
-        </is>
+          <t>632645</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>632_C</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>632_B</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>645_C</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>645_B</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>0.00082257118</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.00084313857</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.00012837529</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.00028527151</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.00082605086</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.00083704913</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Length</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>From1</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>From2</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>From3</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>To1</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>To2</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>To3</t>
-        </is>
-      </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>r11 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>x11 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
-        <is>
-          <t>r21 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>x21 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>r22 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="O24" s="1" t="inlineStr">
-        <is>
-          <t>x22 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="inlineStr">
-        <is>
-          <t>r31 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="Q24" s="1" t="inlineStr">
-        <is>
-          <t>x31 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="inlineStr">
-        <is>
-          <t>r32 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="S24" s="1" t="inlineStr">
-        <is>
-          <t>x32 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="T24" s="1" t="inlineStr">
-        <is>
-          <t>r33 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="U24" s="1" t="inlineStr">
-        <is>
-          <t>x33 (Ohm/length_unit)</t>
-        </is>
-      </c>
-      <c r="V24" s="1" t="inlineStr">
-        <is>
-          <t>b11 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="W24" s="1" t="inlineStr">
-        <is>
-          <t>b21 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="X24" s="1" t="inlineStr">
-        <is>
-          <t>b22 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="Y24" s="1" t="inlineStr">
-        <is>
-          <t>b31 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="Z24" s="1" t="inlineStr">
-        <is>
-          <t>b32 (uS/length_unit)</t>
-        </is>
-      </c>
-      <c r="AA24" s="1" t="inlineStr">
-        <is>
-          <t>b33 (uS/length_unit)</t>
-        </is>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>645646</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>91.44</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>645_C</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>645_B</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>646_C</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>646_B</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.00082257118</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.00084313857</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00012837529</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.00028527151</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.00082605086</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.00083704913</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>671684</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>91.44</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>684_A</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>684_C</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>0.00082257118</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.00084313857</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.00012837529</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.00028527151</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.00082605086</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.00083704913</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>End of Two-Phase Line</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Three-Phase Line with Full Data</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>From1</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>From2</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>From3</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>To1</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>To2</t>
+        </is>
+      </c>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>To3</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t>r11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>x11 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="L29" s="1" t="inlineStr">
+        <is>
+          <t>r21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>x21 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="N29" s="1" t="inlineStr">
+        <is>
+          <t>r22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="O29" s="1" t="inlineStr">
+        <is>
+          <t>x22 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="P29" s="1" t="inlineStr">
+        <is>
+          <t>r31 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="Q29" s="1" t="inlineStr">
+        <is>
+          <t>x31 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="R29" s="1" t="inlineStr">
+        <is>
+          <t>r32 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="S29" s="1" t="inlineStr">
+        <is>
+          <t>x32 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="T29" s="1" t="inlineStr">
+        <is>
+          <t>r33 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>x33 (Ohm/length_unit)</t>
+        </is>
+      </c>
+      <c r="V29" s="1" t="inlineStr">
+        <is>
+          <t>b11 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="W29" s="1" t="inlineStr">
+        <is>
+          <t>b21 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="X29" s="1" t="inlineStr">
+        <is>
+          <t>b22 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="Y29" s="1" t="inlineStr">
+        <is>
+          <t>b31 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="Z29" s="1" t="inlineStr">
+        <is>
+          <t>b32 (uS/length_unit)</t>
+        </is>
+      </c>
+      <c r="AA29" s="1" t="inlineStr">
+        <is>
+          <t>b33 (uS/length_unit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>632633</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>632_A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>632_B</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>632_C</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>633_A</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>633_B</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>633_C</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0.00046764396</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.00073408793</v>
+      </c>
+      <c r="L30" t="n">
+        <v>9.5380478e-05</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.00023916577</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00046447497</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0007445891</v>
+      </c>
+      <c r="P30" t="n">
+        <v>9.6933906e-05</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.00031174193</v>
+      </c>
+      <c r="R30" t="n">
+        <v>9.8176648e-05</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.00026321284</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.00046205162</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.00075260479</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>632670</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>203.3016</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>mid_A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>mid_B</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>mid_C</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>670_A</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>670_B</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>670_C</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0.00021530512</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.00063249374</v>
+      </c>
+      <c r="L31" t="n">
+        <v>9.5380478e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.00023916577</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00020971278</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.00065107274</v>
+      </c>
+      <c r="P31" t="n">
+        <v>9.8176648e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.00026321284</v>
+      </c>
+      <c r="R31" t="n">
+        <v>9.6933906e-05</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.00031174193</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.00021213613</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.00064299491</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>650632</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>609.6</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rg60_A</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>rg60_B</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>rg60_C</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>632_A</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>632_B</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>632_C</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0.00021530512</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.00063249374</v>
+      </c>
+      <c r="L32" t="n">
+        <v>9.5380478e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.00023916577</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00020971278</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.00065107274</v>
+      </c>
+      <c r="P32" t="n">
+        <v>9.8176648e-05</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.00026321284</v>
+      </c>
+      <c r="R32" t="n">
+        <v>9.6933906e-05</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.00031174193</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.00021213613</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.00064299491</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>670671</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>406.2984</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>670_A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>670_B</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>670_C</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>671_B</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0.00021530512</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.00063249374</v>
+      </c>
+      <c r="L33" t="n">
+        <v>9.5380478e-05</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.00023916577</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.00020971278</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.00065107274</v>
+      </c>
+      <c r="P33" t="n">
+        <v>9.8176648e-05</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.00026321284</v>
+      </c>
+      <c r="R33" t="n">
+        <v>9.6933906e-05</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.00031174193</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.00021213613</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.00064299491</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>671680</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>304.8</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>671_A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>671_B</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>671_C</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>680_A</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>680_B</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>680_C</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0.00021530512</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.00063249374</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9.5380478e-05</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.00023916577</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00020971278</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.00065107274</v>
+      </c>
+      <c r="P34" t="n">
+        <v>9.8176648e-05</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.00026321284</v>
+      </c>
+      <c r="R34" t="n">
+        <v>9.6933906e-05</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.00031174193</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.00021213613</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.00064299491</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>692675</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>152.4</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>692_A</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>692_B</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>692_C</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>675_A</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>675_B</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>675_C</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0004919526200000001</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0002723793</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.00019789181</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.7201916e-05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00048569417</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.00024649609</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.00017612766</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.1445906e-05</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.00019789181</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.7201916e-05</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0004919526200000001</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0002723793</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.08994036399999999</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.08994036399999999</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.08994036399999999</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>End of Three-Phase Line with Full Data</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>Three-Phase Line with Sequential Data</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="C28" s="1" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr">
         <is>
           <t>Length</t>
         </is>
       </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="D39" s="1" t="inlineStr">
         <is>
           <t>From1</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E39" s="1" t="inlineStr">
         <is>
           <t>From2</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>From3</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>To1</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="H39" s="1" t="inlineStr">
         <is>
           <t>To2</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="I39" s="1" t="inlineStr">
         <is>
           <t>To3</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J39" s="1" t="inlineStr">
         <is>
           <t>R0 (Ohm/length_unit)</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K39" s="1" t="inlineStr">
         <is>
           <t>X0 (Ohm/length_unit)</t>
         </is>
       </c>
-      <c r="L28" s="1" t="inlineStr">
+      <c r="L39" s="1" t="inlineStr">
         <is>
           <t>R1 (Ohm/length_unit)</t>
         </is>
       </c>
-      <c r="M28" s="1" t="inlineStr">
+      <c r="M39" s="1" t="inlineStr">
         <is>
           <t>X1 (Ohm/length_unit)</t>
         </is>
       </c>
-      <c r="N28" s="1" t="inlineStr">
+      <c r="N39" s="1" t="inlineStr">
         <is>
           <t>B0 (uS/length_unit)</t>
         </is>
       </c>
-      <c r="O28" s="1" t="inlineStr">
+      <c r="O39" s="1" t="inlineStr">
         <is>
           <t>B1 (uS/length_unit)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>End of Three-Phase Line with Sequential Data</t>
         </is>
@@ -4484,7 +5310,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4499,7 +5325,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -4510,7 +5336,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4525,7 +5351,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -3786,7 +3786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:AA25"/>
+  <dimension ref="A11:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3861,408 +3861,490 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>End of Positive-Sequence 2W Transformer</t>
-        </is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sourcebus</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>xfm1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>xf1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Positive-Sequence 3W Transformer</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>Bus1</t>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
-        <is>
-          <t>Bus2</t>
-        </is>
-      </c>
-      <c r="E16" s="1" t="inlineStr">
-        <is>
-          <t>Bus3</t>
-        </is>
-      </c>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>R_12 (pu)</t>
-        </is>
-      </c>
-      <c r="G16" s="1" t="inlineStr">
-        <is>
-          <t>Xl_12 (pu)</t>
-        </is>
-      </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>R_23 (pu)</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
-        <is>
-          <t>Xl_23 (pu)</t>
-        </is>
-      </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>R_31 (pu)</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
-        <is>
-          <t>Xl_31 (pu)</t>
-        </is>
-      </c>
-      <c r="L16" s="1" t="inlineStr">
-        <is>
-          <t>Gmag (pu)</t>
-        </is>
-      </c>
-      <c r="M16" s="1" t="inlineStr">
-        <is>
-          <t>Bmag (pu)</t>
-        </is>
-      </c>
-      <c r="N16" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W1 (pu)</t>
-        </is>
-      </c>
-      <c r="O16" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W2 (pu)</t>
-        </is>
-      </c>
-      <c r="P16" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W3 (pu)</t>
-        </is>
-      </c>
-      <c r="Q16" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W1 (deg)</t>
-        </is>
-      </c>
-      <c r="R16" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W2 (deg)</t>
-        </is>
-      </c>
-      <c r="S16" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W3 (deg)</t>
+          <t>End of Positive-Sequence 2W Transformer</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>End of Positive-Sequence 3W Transformer</t>
+          <t>Positive-Sequence 3W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>R_12 (pu)</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>Xl_12 (pu)</t>
+        </is>
+      </c>
+      <c r="H18" s="1" t="inlineStr">
+        <is>
+          <t>R_23 (pu)</t>
+        </is>
+      </c>
+      <c r="I18" s="1" t="inlineStr">
+        <is>
+          <t>Xl_23 (pu)</t>
+        </is>
+      </c>
+      <c r="J18" s="1" t="inlineStr">
+        <is>
+          <t>R_31 (pu)</t>
+        </is>
+      </c>
+      <c r="K18" s="1" t="inlineStr">
+        <is>
+          <t>Xl_31 (pu)</t>
+        </is>
+      </c>
+      <c r="L18" s="1" t="inlineStr">
+        <is>
+          <t>Gmag (pu)</t>
+        </is>
+      </c>
+      <c r="M18" s="1" t="inlineStr">
+        <is>
+          <t>Bmag (pu)</t>
+        </is>
+      </c>
+      <c r="N18" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W1 (pu)</t>
+        </is>
+      </c>
+      <c r="O18" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W2 (pu)</t>
+        </is>
+      </c>
+      <c r="P18" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W3 (pu)</t>
+        </is>
+      </c>
+      <c r="Q18" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W1 (deg)</t>
+        </is>
+      </c>
+      <c r="R18" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W2 (deg)</t>
+        </is>
+      </c>
+      <c r="S18" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W3 (deg)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Multiphase 2W Transformer</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Number of phases</t>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_A</t>
-        </is>
-      </c>
-      <c r="E20" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_B</t>
-        </is>
-      </c>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_C</t>
-        </is>
-      </c>
-      <c r="G20" s="1" t="inlineStr">
-        <is>
-          <t>V1 (kV)</t>
-        </is>
-      </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>S_base1 (kVA)</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type1</t>
-        </is>
-      </c>
-      <c r="J20" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_A</t>
-        </is>
-      </c>
-      <c r="K20" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_B</t>
-        </is>
-      </c>
-      <c r="L20" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_C</t>
-        </is>
-      </c>
-      <c r="M20" s="1" t="inlineStr">
-        <is>
-          <t>V2 (kV)</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="inlineStr">
-        <is>
-          <t>S_base2 (kVA)</t>
-        </is>
-      </c>
-      <c r="O20" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type2</t>
-        </is>
-      </c>
-      <c r="P20" s="1" t="inlineStr">
-        <is>
-          <t>Tap 1</t>
-        </is>
-      </c>
-      <c r="Q20" s="1" t="inlineStr">
-        <is>
-          <t>Tap 2</t>
-        </is>
-      </c>
-      <c r="R20" s="1" t="inlineStr">
-        <is>
-          <t>Tap 3</t>
-        </is>
-      </c>
-      <c r="S20" s="1" t="inlineStr">
-        <is>
-          <t>Lowest Tap</t>
-        </is>
-      </c>
-      <c r="T20" s="1" t="inlineStr">
-        <is>
-          <t>Highest Tap</t>
-        </is>
-      </c>
-      <c r="U20" s="1" t="inlineStr">
-        <is>
-          <t>Min Range (%)</t>
-        </is>
-      </c>
-      <c r="V20" s="1" t="inlineStr">
-        <is>
-          <t>Max Range (%)</t>
-        </is>
-      </c>
-      <c r="W20" s="1" t="inlineStr">
-        <is>
-          <t>X (pu)</t>
-        </is>
-      </c>
-      <c r="X20" s="1" t="inlineStr">
-        <is>
-          <t>RW1 (pu)</t>
-        </is>
-      </c>
-      <c r="Y20" s="1" t="inlineStr">
-        <is>
-          <t>RW2</t>
+          <t>End of Positive-Sequence 3W Transformer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>End of Multiphase 2W Transformer</t>
+          <t>Multiphase 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L22" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N22" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O22" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P22" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q22" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R22" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S22" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T22" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V22" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W22" s="1" t="inlineStr">
+        <is>
+          <t>X (pu)</t>
+        </is>
+      </c>
+      <c r="X22" s="1" t="inlineStr">
+        <is>
+          <t>RW1 (pu)</t>
+        </is>
+      </c>
+      <c r="Y22" s="1" t="inlineStr">
+        <is>
+          <t>RW2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Multiphase 2W Transformer with Mutual Impedance</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Number of phases</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_A</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_B</t>
-        </is>
-      </c>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_C</t>
-        </is>
-      </c>
-      <c r="G24" s="1" t="inlineStr">
-        <is>
-          <t>V1 (kV)</t>
-        </is>
-      </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>S_base1 (kVA)</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type1</t>
-        </is>
-      </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_A</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_B</t>
-        </is>
-      </c>
-      <c r="L24" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_C</t>
-        </is>
-      </c>
-      <c r="M24" s="1" t="inlineStr">
-        <is>
-          <t>V2 (kV)</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="inlineStr">
-        <is>
-          <t>S_base2 (kVA)</t>
-        </is>
-      </c>
-      <c r="O24" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type2</t>
-        </is>
-      </c>
-      <c r="P24" s="1" t="inlineStr">
-        <is>
-          <t>Tap 1</t>
-        </is>
-      </c>
-      <c r="Q24" s="1" t="inlineStr">
-        <is>
-          <t>Tap 2</t>
-        </is>
-      </c>
-      <c r="R24" s="1" t="inlineStr">
-        <is>
-          <t>Tap 3</t>
-        </is>
-      </c>
-      <c r="S24" s="1" t="inlineStr">
-        <is>
-          <t>Lowest Tap</t>
-        </is>
-      </c>
-      <c r="T24" s="1" t="inlineStr">
-        <is>
-          <t>Highest Tap</t>
-        </is>
-      </c>
-      <c r="U24" s="1" t="inlineStr">
-        <is>
-          <t>Min Range (%)</t>
-        </is>
-      </c>
-      <c r="V24" s="1" t="inlineStr">
-        <is>
-          <t>Max Range (%)</t>
-        </is>
-      </c>
-      <c r="W24" s="1" t="inlineStr">
-        <is>
-          <t>Z0 leakage (pu)</t>
-        </is>
-      </c>
-      <c r="X24" s="1" t="inlineStr">
-        <is>
-          <t>Z1 leakage (pu)</t>
-        </is>
-      </c>
-      <c r="Y24" s="1" t="inlineStr">
-        <is>
-          <t>X0/R0</t>
-        </is>
-      </c>
-      <c r="Z24" s="1" t="inlineStr">
-        <is>
-          <t>X1/R1</t>
-        </is>
-      </c>
-      <c r="AA24" s="1" t="inlineStr">
-        <is>
-          <t>No Load Loss (kW)</t>
+          <t>End of Multiphase 2W Transformer</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
+        <is>
+          <t>Multiphase 2W Transformer with Mutual Impedance</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K26" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L26" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N26" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O26" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P26" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q26" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R26" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S26" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T26" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U26" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V26" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W26" s="1" t="inlineStr">
+        <is>
+          <t>Z0 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="X26" s="1" t="inlineStr">
+        <is>
+          <t>Z1 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="Y26" s="1" t="inlineStr">
+        <is>
+          <t>X0/R0</t>
+        </is>
+      </c>
+      <c r="Z26" s="1" t="inlineStr">
+        <is>
+          <t>X1/R1</t>
+        </is>
+      </c>
+      <c r="AA26" s="1" t="inlineStr">
+        <is>
+          <t>No Load Loss (kW)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>End of Multiphase 2W Transformer with Mutual Impedance</t>
         </is>
@@ -4348,7 +4430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>632_C</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4363,7 +4445,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -4374,7 +4456,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4389,7 +4471,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -4400,7 +4482,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_B</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4415,7 +4497,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -4426,7 +4508,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>633_C</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4441,7 +4523,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -4452,7 +4534,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4467,7 +4549,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -4478,7 +4560,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_B</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4493,7 +4575,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -4504,7 +4586,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>634_C</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4519,7 +4601,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -4530,7 +4612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4545,7 +4627,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4556,7 +4638,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_B</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4571,7 +4653,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -4582,7 +4664,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>645_C</t>
+          <t>645_B</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4597,7 +4679,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -4608,7 +4690,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>645_B</t>
+          <t>645_C</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4623,7 +4705,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -4634,7 +4716,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>646_C</t>
+          <t>646_B</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4649,7 +4731,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -4660,7 +4742,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>646_B</t>
+          <t>646_C</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4675,7 +4757,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -4686,7 +4768,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>650_C</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4701,7 +4783,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -4712,7 +4794,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4727,7 +4809,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -4738,7 +4820,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_B</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4753,7 +4835,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -4790,7 +4872,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>670_C</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4805,7 +4887,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -4816,7 +4898,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4831,7 +4913,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -4842,7 +4924,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_B</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4857,7 +4939,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -4868,7 +4950,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>671_C</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4883,7 +4965,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -4894,7 +4976,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_B</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4909,7 +4991,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -4920,7 +5002,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_B</t>
+          <t>671_C</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4935,7 +5017,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -4946,7 +5028,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>675_C</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4961,7 +5043,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -4972,7 +5054,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_B</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4987,7 +5069,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -4998,7 +5080,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_B</t>
+          <t>675_C</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5013,7 +5095,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5024,7 +5106,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>680_C</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5039,7 +5121,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5050,7 +5132,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_B</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5065,7 +5147,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5076,7 +5158,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_B</t>
+          <t>680_C</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5091,7 +5173,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5102,7 +5184,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>684_C</t>
+          <t>684_A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5117,7 +5199,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5128,7 +5210,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684_A</t>
+          <t>684_C</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5143,7 +5225,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -5154,7 +5236,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5169,7 +5251,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -5180,7 +5262,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_B</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5195,7 +5277,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5206,7 +5288,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_B</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5221,7 +5303,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -5232,7 +5314,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>brkr_C</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5247,7 +5329,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -5258,7 +5340,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5273,7 +5355,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5284,7 +5366,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_B</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5299,7 +5381,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -5362,7 +5444,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mid_C</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -5377,7 +5459,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -5388,7 +5470,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_B</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -5403,7 +5485,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -5414,7 +5496,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_B</t>
+          <t>mid_C</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -5429,7 +5511,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -5440,7 +5522,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rg60_C</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -5455,7 +5537,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -5466,7 +5548,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_B</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -5481,7 +5563,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -5492,7 +5574,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_B</t>
+          <t>rg60_C</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -5507,7 +5589,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -5518,7 +5600,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sourcebus_C</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -5533,7 +5615,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -5544,7 +5626,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_B</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -5559,7 +5641,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -5570,7 +5652,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_B</t>
+          <t>sourcebus_C</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5585,7 +5667,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -5622,7 +5704,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xf1_C</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -5637,7 +5719,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -5648,7 +5730,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -5663,7 +5745,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -5674,7 +5756,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_B</t>
+          <t>xf1_C</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -5689,7 +5771,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -3786,7 +3786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A11:AA27"/>
+  <dimension ref="A11:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3861,490 +3861,1078 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sub</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>sourcebus</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>650</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="F13" t="n">
-        <v>8.000000000000001e-05</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>xfm1</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>xf1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>634</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+          <t>End of Positive-Sequence 2W Transformer</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>End of Positive-Sequence 2W Transformer</t>
+          <t>Positive-Sequence 3W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Bus1</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Bus2</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>Bus3</t>
+        </is>
+      </c>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>R_12 (pu)</t>
+        </is>
+      </c>
+      <c r="G16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_12 (pu)</t>
+        </is>
+      </c>
+      <c r="H16" s="1" t="inlineStr">
+        <is>
+          <t>R_23 (pu)</t>
+        </is>
+      </c>
+      <c r="I16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_23 (pu)</t>
+        </is>
+      </c>
+      <c r="J16" s="1" t="inlineStr">
+        <is>
+          <t>R_31 (pu)</t>
+        </is>
+      </c>
+      <c r="K16" s="1" t="inlineStr">
+        <is>
+          <t>Xl_31 (pu)</t>
+        </is>
+      </c>
+      <c r="L16" s="1" t="inlineStr">
+        <is>
+          <t>Gmag (pu)</t>
+        </is>
+      </c>
+      <c r="M16" s="1" t="inlineStr">
+        <is>
+          <t>Bmag (pu)</t>
+        </is>
+      </c>
+      <c r="N16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W1 (pu)</t>
+        </is>
+      </c>
+      <c r="O16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W2 (pu)</t>
+        </is>
+      </c>
+      <c r="P16" s="1" t="inlineStr">
+        <is>
+          <t>Ratio W3 (pu)</t>
+        </is>
+      </c>
+      <c r="Q16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W1 (deg)</t>
+        </is>
+      </c>
+      <c r="R16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W2 (deg)</t>
+        </is>
+      </c>
+      <c r="S16" s="1" t="inlineStr">
+        <is>
+          <t>Phase Shift W3 (deg)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Positive-Sequence 3W Transformer</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>Bus1</t>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
-        <is>
-          <t>Bus2</t>
-        </is>
-      </c>
-      <c r="E18" s="1" t="inlineStr">
-        <is>
-          <t>Bus3</t>
-        </is>
-      </c>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>R_12 (pu)</t>
-        </is>
-      </c>
-      <c r="G18" s="1" t="inlineStr">
-        <is>
-          <t>Xl_12 (pu)</t>
-        </is>
-      </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>R_23 (pu)</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
-        <is>
-          <t>Xl_23 (pu)</t>
-        </is>
-      </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>R_31 (pu)</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
-        <is>
-          <t>Xl_31 (pu)</t>
-        </is>
-      </c>
-      <c r="L18" s="1" t="inlineStr">
-        <is>
-          <t>Gmag (pu)</t>
-        </is>
-      </c>
-      <c r="M18" s="1" t="inlineStr">
-        <is>
-          <t>Bmag (pu)</t>
-        </is>
-      </c>
-      <c r="N18" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W1 (pu)</t>
-        </is>
-      </c>
-      <c r="O18" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W2 (pu)</t>
-        </is>
-      </c>
-      <c r="P18" s="1" t="inlineStr">
-        <is>
-          <t>Ratio W3 (pu)</t>
-        </is>
-      </c>
-      <c r="Q18" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W1 (deg)</t>
-        </is>
-      </c>
-      <c r="R18" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W2 (deg)</t>
-        </is>
-      </c>
-      <c r="S18" s="1" t="inlineStr">
-        <is>
-          <t>Phase Shift W3 (deg)</t>
+          <t>End of Positive-Sequence 3W Transformer</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>End of Positive-Sequence 3W Transformer</t>
+          <t>Multiphase 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H20" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L20" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N20" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O20" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R20" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S20" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T20" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U20" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V20" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W20" s="1" t="inlineStr">
+        <is>
+          <t>X (pu)</t>
+        </is>
+      </c>
+      <c r="X20" s="1" t="inlineStr">
+        <is>
+          <t>RW1 (pu)</t>
+        </is>
+      </c>
+      <c r="Y20" s="1" t="inlineStr">
+        <is>
+          <t>RW2 (pu)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Multiphase 2W Transformer</t>
-        </is>
+          <t>sub</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sourcebus_A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>sourcebus_B</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>sourcebus_C</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>115</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>delta</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>650_A</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>650_B</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>650_C</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>16</v>
+      </c>
+      <c r="U21" t="n">
+        <v>10</v>
+      </c>
+      <c r="V21" t="n">
+        <v>10</v>
+      </c>
+      <c r="W21" t="n">
+        <v>8.000000000000001e-05</v>
+      </c>
+      <c r="X21" t="n">
+        <v>5e-06</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>5e-06</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Number of phases</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_A</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_B</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_C</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>V1 (kV)</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>S_base1 (kVA)</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type1</t>
-        </is>
-      </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_A</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_B</t>
-        </is>
-      </c>
-      <c r="L22" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_C</t>
-        </is>
-      </c>
-      <c r="M22" s="1" t="inlineStr">
-        <is>
-          <t>V2 (kV)</t>
-        </is>
-      </c>
-      <c r="N22" s="1" t="inlineStr">
-        <is>
-          <t>S_base2 (kVA)</t>
-        </is>
-      </c>
-      <c r="O22" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type2</t>
-        </is>
-      </c>
-      <c r="P22" s="1" t="inlineStr">
-        <is>
-          <t>Tap 1</t>
-        </is>
-      </c>
-      <c r="Q22" s="1" t="inlineStr">
-        <is>
-          <t>Tap 2</t>
-        </is>
-      </c>
-      <c r="R22" s="1" t="inlineStr">
-        <is>
-          <t>Tap 3</t>
-        </is>
-      </c>
-      <c r="S22" s="1" t="inlineStr">
-        <is>
-          <t>Lowest Tap</t>
-        </is>
-      </c>
-      <c r="T22" s="1" t="inlineStr">
-        <is>
-          <t>Highest Tap</t>
-        </is>
-      </c>
-      <c r="U22" s="1" t="inlineStr">
-        <is>
-          <t>Min Range (%)</t>
-        </is>
-      </c>
-      <c r="V22" s="1" t="inlineStr">
-        <is>
-          <t>Max Range (%)</t>
-        </is>
-      </c>
-      <c r="W22" s="1" t="inlineStr">
-        <is>
-          <t>X (pu)</t>
-        </is>
-      </c>
-      <c r="X22" s="1" t="inlineStr">
-        <is>
-          <t>RW1 (pu)</t>
-        </is>
-      </c>
-      <c r="Y22" s="1" t="inlineStr">
-        <is>
-          <t>RW2</t>
-        </is>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>xfm1</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>xf1_A</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>xf1_B</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>xf1_C</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="H22" t="n">
+        <v>500</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>634_A</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>634_B</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>634_C</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="N22" t="n">
+        <v>500</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T22" t="n">
+        <v>16</v>
+      </c>
+      <c r="U22" t="n">
+        <v>10</v>
+      </c>
+      <c r="V22" t="n">
+        <v>10</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.005500000000000001</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.005500000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>End of Multiphase 2W Transformer</t>
-        </is>
+          <t>Reg:reg1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>brkr_A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>rg60_A</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1666</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T23" t="n">
+        <v>16</v>
+      </c>
+      <c r="U23" t="n">
+        <v>10</v>
+      </c>
+      <c r="V23" t="n">
+        <v>10</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.645701472820407e-08</v>
+      </c>
+      <c r="X23" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5e-05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Reg:reg2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>brkr_B</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>rg60_B</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1666</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16</v>
+      </c>
+      <c r="U24" t="n">
+        <v>10</v>
+      </c>
+      <c r="V24" t="n">
+        <v>10</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.645701472820407e-08</v>
+      </c>
+      <c r="X24" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>5e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Multiphase 2W Transformer with Mutual Impedance</t>
-        </is>
+          <t>Reg:reg3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>brkr_C</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1666</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>rg60_C</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1666</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T25" t="n">
+        <v>16</v>
+      </c>
+      <c r="U25" t="n">
+        <v>10</v>
+      </c>
+      <c r="V25" t="n">
+        <v>10</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.645701472820407e-08</v>
+      </c>
+      <c r="X25" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>5e-05</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Number of phases</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_A</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_B</t>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Bus1_C</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>V1 (kV)</t>
-        </is>
-      </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>S_base1 (kVA)</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type1</t>
-        </is>
-      </c>
-      <c r="J26" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_A</t>
-        </is>
-      </c>
-      <c r="K26" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_B</t>
-        </is>
-      </c>
-      <c r="L26" s="1" t="inlineStr">
-        <is>
-          <t>Bus2_C</t>
-        </is>
-      </c>
-      <c r="M26" s="1" t="inlineStr">
-        <is>
-          <t>V2 (kV)</t>
-        </is>
-      </c>
-      <c r="N26" s="1" t="inlineStr">
-        <is>
-          <t>S_base2 (kVA)</t>
-        </is>
-      </c>
-      <c r="O26" s="1" t="inlineStr">
-        <is>
-          <t>Conn. type2</t>
-        </is>
-      </c>
-      <c r="P26" s="1" t="inlineStr">
-        <is>
-          <t>Tap 1</t>
-        </is>
-      </c>
-      <c r="Q26" s="1" t="inlineStr">
-        <is>
-          <t>Tap 2</t>
-        </is>
-      </c>
-      <c r="R26" s="1" t="inlineStr">
-        <is>
-          <t>Tap 3</t>
-        </is>
-      </c>
-      <c r="S26" s="1" t="inlineStr">
-        <is>
-          <t>Lowest Tap</t>
-        </is>
-      </c>
-      <c r="T26" s="1" t="inlineStr">
-        <is>
-          <t>Highest Tap</t>
-        </is>
-      </c>
-      <c r="U26" s="1" t="inlineStr">
-        <is>
-          <t>Min Range (%)</t>
-        </is>
-      </c>
-      <c r="V26" s="1" t="inlineStr">
-        <is>
-          <t>Max Range (%)</t>
-        </is>
-      </c>
-      <c r="W26" s="1" t="inlineStr">
-        <is>
-          <t>Z0 leakage (pu)</t>
-        </is>
-      </c>
-      <c r="X26" s="1" t="inlineStr">
-        <is>
-          <t>Z1 leakage (pu)</t>
-        </is>
-      </c>
-      <c r="Y26" s="1" t="inlineStr">
-        <is>
-          <t>X0/R0</t>
-        </is>
-      </c>
-      <c r="Z26" s="1" t="inlineStr">
-        <is>
-          <t>X1/R1</t>
-        </is>
-      </c>
-      <c r="AA26" s="1" t="inlineStr">
-        <is>
-          <t>No Load Loss (kW)</t>
-        </is>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>tpoletop:tpoletop</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>xfstar_tpoletop_B</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>house_s1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0.2078460969082652</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T26" t="n">
+        <v>16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>10</v>
+      </c>
+      <c r="V26" t="n">
+        <v>10</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.001400000000000002</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.0045</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
+        <is>
+          <t>tpoletop:tpoletop</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>xfstar_tpoletop_B</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>house_s2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0.2078460969082652</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T27" t="n">
+        <v>16</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.0122</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>End of Multiphase 2W Transformer</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Multiphase 2W Transformer with Mutual Impedance</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr">
+        <is>
+          <t>Number of phases</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_A</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_B</t>
+        </is>
+      </c>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>Bus1_C</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>V1 (kV)</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>S_base1 (kVA)</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type1</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_A</t>
+        </is>
+      </c>
+      <c r="K31" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_B</t>
+        </is>
+      </c>
+      <c r="L31" s="1" t="inlineStr">
+        <is>
+          <t>Bus2_C</t>
+        </is>
+      </c>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>V2 (kV)</t>
+        </is>
+      </c>
+      <c r="N31" s="1" t="inlineStr">
+        <is>
+          <t>S_base2 (kVA)</t>
+        </is>
+      </c>
+      <c r="O31" s="1" t="inlineStr">
+        <is>
+          <t>Conn. type2</t>
+        </is>
+      </c>
+      <c r="P31" s="1" t="inlineStr">
+        <is>
+          <t>Tap 1</t>
+        </is>
+      </c>
+      <c r="Q31" s="1" t="inlineStr">
+        <is>
+          <t>Tap 2</t>
+        </is>
+      </c>
+      <c r="R31" s="1" t="inlineStr">
+        <is>
+          <t>Tap 3</t>
+        </is>
+      </c>
+      <c r="S31" s="1" t="inlineStr">
+        <is>
+          <t>Lowest Tap</t>
+        </is>
+      </c>
+      <c r="T31" s="1" t="inlineStr">
+        <is>
+          <t>Highest Tap</t>
+        </is>
+      </c>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>Min Range (%)</t>
+        </is>
+      </c>
+      <c r="V31" s="1" t="inlineStr">
+        <is>
+          <t>Max Range (%)</t>
+        </is>
+      </c>
+      <c r="W31" s="1" t="inlineStr">
+        <is>
+          <t>Z0 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="X31" s="1" t="inlineStr">
+        <is>
+          <t>Z1 leakage (pu)</t>
+        </is>
+      </c>
+      <c r="Y31" s="1" t="inlineStr">
+        <is>
+          <t>X0/R0</t>
+        </is>
+      </c>
+      <c r="Z31" s="1" t="inlineStr">
+        <is>
+          <t>X1/R1</t>
+        </is>
+      </c>
+      <c r="AA31" s="1" t="inlineStr">
+        <is>
+          <t>No Load Loss (kW)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tpoletop:tpoletop</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>670_B</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>xfstar_tpoletop_B</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>4.156921938165305</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>wye</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-16</v>
+      </c>
+      <c r="T32" t="n">
+        <v>16</v>
+      </c>
+      <c r="U32" t="n">
+        <v>10</v>
+      </c>
+      <c r="V32" t="n">
+        <v>10</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.01217538500417954</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.01217538500417954</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9111111111111114</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9111111111111114</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>End of Multiphase 2W Transformer with Mutual Impedance</t>
         </is>
@@ -4361,7 +4949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5392,7 +5980,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5407,7 +5995,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -5418,7 +6006,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5433,7 +6021,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -5774,6 +6362,32 @@
         <v>120</v>
       </c>
       <c r="F54" t="inlineStr">
+        <is>
+          <t>PQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>xfstar_tpoletop_B</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>pu</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>-120</v>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>PQ</t>
         </is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -4370,13 +4370,13 @@
         <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>1.645701472820407e-08</v>
+        <v>0.0001000000013541667</v>
       </c>
       <c r="X23" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
       <c r="Y23" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
     </row>
     <row r="24">
@@ -4449,13 +4449,13 @@
         <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>1.645701472820407e-08</v>
+        <v>0.0001000000013541667</v>
       </c>
       <c r="X24" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
     </row>
     <row r="25">
@@ -4528,13 +4528,13 @@
         <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>1.645701472820407e-08</v>
+        <v>0.0001000000013541667</v>
       </c>
       <c r="X25" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
       <c r="Y25" t="n">
-        <v>5e-05</v>
+        <v>5.000000067708333e-05</v>
       </c>
     </row>
     <row r="26">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>xfstar_tpoletop_B</t>
+          <t>xfbus_tpoletop_B</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -4607,13 +4607,13 @@
         <v>10</v>
       </c>
       <c r="W26" t="n">
-        <v>0.001400000000000002</v>
+        <v>0.0068</v>
       </c>
       <c r="X26" t="n">
-        <v>0.0045</v>
+        <v>0.006</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.0045</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="27">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>xfstar_tpoletop_B</t>
+          <t>xfbus_tpoletop_B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -4686,13 +4686,13 @@
         <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>0.0122</v>
+        <v>0.0068</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="28">
@@ -4878,7 +4878,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>xfstar_tpoletop_B</t>
+          <t>xfbus_tpoletop_B</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -4916,16 +4916,16 @@
         <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01217538500417954</v>
+        <v>0.01486472334084964</v>
       </c>
       <c r="X32" t="n">
-        <v>0.01217538500417954</v>
+        <v>0.01486472334084964</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.9111111111111114</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.9111111111111114</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="AA32" t="n">
         <v>0.01</v>
@@ -5018,7 +5018,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_C</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_B</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_C</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_C</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_B</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_C</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5174,7 +5174,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_C</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5189,7 +5189,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_B</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_C</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>645_B</t>
+          <t>645_C</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5267,7 +5267,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>645_C</t>
+          <t>645_B</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>646_B</t>
+          <t>646_C</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5319,7 +5319,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>646_C</t>
+          <t>646_B</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5345,7 +5345,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_C</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_B</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_C</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_C</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5475,7 +5475,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_B</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_C</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_C</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_B</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_C</t>
+          <t>671_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_C</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_B</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_C</t>
+          <t>675_B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5694,7 +5694,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_C</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -5709,7 +5709,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_B</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_C</t>
+          <t>680_B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>684_A</t>
+          <t>684_C</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684_C</t>
+          <t>684_A</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_B</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_B</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -5902,7 +5902,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_C</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_B</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_C</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6032,7 +6032,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_C</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6047,7 +6047,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_B</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_C</t>
+          <t>mid_B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_C</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_B</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_C</t>
+          <t>rg60_B</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_C</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -6203,7 +6203,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_B</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_C</t>
+          <t>sourcebus_B</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_C</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -6307,7 +6307,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_B</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_C</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>xfstar_tpoletop_B</t>
+          <t>xfbus_tpoletop_B</t>
         </is>
       </c>
       <c r="B55" t="n">

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -4184,16 +4184,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>8.000000000000001e-05</v>
@@ -4279,16 +4279,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0.02</v>
@@ -4358,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0.0001000000013541667</v>
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0.0001000000013541667</v>
@@ -4516,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0.0001000000013541667</v>
@@ -4595,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0.0068</v>
@@ -4674,16 +4674,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0.0068</v>
@@ -4904,16 +4904,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0.01486472334084964</v>
@@ -5980,7 +5980,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -4349,7 +4349,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -4358,16 +4358,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
         <v>0.0001000000013541667</v>
@@ -4428,7 +4428,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -4437,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
         <v>0.0001000000013541667</v>
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -4516,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
         <v>0.0001000000013541667</v>
@@ -5044,7 +5044,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_B</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_B</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_B</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_B</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_B</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_B</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_B</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_B</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_B</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_B</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_B</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_B</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -5839,7 +5839,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_B</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_B</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_B</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_B</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_B</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_B</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_B</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_B</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_B</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -4507,7 +4507,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -5044,7 +5044,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>632_B</t>
+          <t>632_A</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5059,7 +5059,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -5070,7 +5070,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>632_A</t>
+          <t>632_B</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>633_B</t>
+          <t>633_A</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>633_A</t>
+          <t>633_B</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5163,7 +5163,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>634_B</t>
+          <t>634_A</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5215,7 +5215,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>634_A</t>
+          <t>634_B</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>650_B</t>
+          <t>650_A</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>650_A</t>
+          <t>650_B</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>670_B</t>
+          <t>670_A</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>670_A</t>
+          <t>670_B</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>671_B</t>
+          <t>671_A</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -5590,7 +5590,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>671_A</t>
+          <t>671_B</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5605,7 +5605,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -5642,7 +5642,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>675_B</t>
+          <t>675_A</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5657,7 +5657,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>675_A</t>
+          <t>675_B</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5683,7 +5683,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>680_B</t>
+          <t>680_A</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>680_A</t>
+          <t>680_B</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -5761,7 +5761,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>684_C</t>
+          <t>684_A</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -5787,7 +5787,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -5798,7 +5798,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>684_A</t>
+          <t>684_C</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -5850,7 +5850,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>692_C</t>
+          <t>692_A</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5865,7 +5865,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>692_A</t>
+          <t>692_C</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5891,7 +5891,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>brkr_B</t>
+          <t>brkr_A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5943,7 +5943,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>brkr_A</t>
+          <t>brkr_B</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5969,7 +5969,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>house_s1</t>
+          <t>house_s2</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5995,7 +5995,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>house_s2</t>
+          <t>house_s1</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mid_B</t>
+          <t>mid_A</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6073,7 +6073,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>mid_A</t>
+          <t>mid_B</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6099,7 +6099,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -6136,7 +6136,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>rg60_B</t>
+          <t>rg60_A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -6162,7 +6162,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>rg60_A</t>
+          <t>rg60_B</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>sourcebus_B</t>
+          <t>sourcebus_A</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -6229,7 +6229,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sourcebus_A</t>
+          <t>sourcebus_B</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -6318,7 +6318,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xf1_B</t>
+          <t>xf1_A</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -6333,7 +6333,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -6344,7 +6344,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>xf1_A</t>
+          <t>xf1_B</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -13,15 +13,16 @@
     <sheet name="Shunt" sheetId="4" r:id="rId4"/>
     <sheet name="Line" sheetId="5" r:id="rId5"/>
     <sheet name="Transformer" sheetId="6" r:id="rId6"/>
-    <sheet name="Bus" sheetId="7" r:id="rId7"/>
-    <sheet name="Switch" sheetId="8" r:id="rId8"/>
+    <sheet name="Machine" sheetId="7" r:id="rId7"/>
+    <sheet name="Bus" sheetId="8" r:id="rId8"/>
+    <sheet name="Switch" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="360">
   <si>
     <t>Excel file version</t>
   </si>
@@ -68,6 +69,9 @@
     <t>Positive Sequence Voltage Source</t>
   </si>
   <si>
+    <t>Go to Type List</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -903,6 +907,138 @@
   </si>
   <si>
     <t>End of Multiphase 2W Transformer with Mutual Impedance</t>
+  </si>
+  <si>
+    <t>SyncGenGENCLS</t>
+  </si>
+  <si>
+    <t>SyncGenGENROE</t>
+  </si>
+  <si>
+    <t>SyncGenGENROU</t>
+  </si>
+  <si>
+    <t>SyncGenGENSAE</t>
+  </si>
+  <si>
+    <t>SyncGenGENSAL</t>
+  </si>
+  <si>
+    <t>AsyncGenSingleCage</t>
+  </si>
+  <si>
+    <t>AsyncGenDoubleCage</t>
+  </si>
+  <si>
+    <t>Pg (MW)</t>
+  </si>
+  <si>
+    <t>Qg (MVAr)</t>
+  </si>
+  <si>
+    <t>Qmin (MVAr)</t>
+  </si>
+  <si>
+    <t>Qmax (MVAr)</t>
+  </si>
+  <si>
+    <t>Sbase (MVA)</t>
+  </si>
+  <si>
+    <t>H (s)</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Ra (pu)</t>
+  </si>
+  <si>
+    <t>x'_d (pu)</t>
+  </si>
+  <si>
+    <t>End of SyncGenGENCLS</t>
+  </si>
+  <si>
+    <t>x_d (pu)</t>
+  </si>
+  <si>
+    <t>x_q (pu)</t>
+  </si>
+  <si>
+    <t>x'_q (pu)</t>
+  </si>
+  <si>
+    <t>x''_d (pu)</t>
+  </si>
+  <si>
+    <t>x_l (pu)</t>
+  </si>
+  <si>
+    <t>T'_do (s)</t>
+  </si>
+  <si>
+    <t>T''_do (s)</t>
+  </si>
+  <si>
+    <t>T'_qo (s)</t>
+  </si>
+  <si>
+    <t>T''_qo (s)</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S12</t>
+  </si>
+  <si>
+    <t>End of SyncGenGENROE</t>
+  </si>
+  <si>
+    <t>End of SyncGenGENROU</t>
+  </si>
+  <si>
+    <t>End of SyncGenGENSAE</t>
+  </si>
+  <si>
+    <t>End of SyncGenGENSAL</t>
+  </si>
+  <si>
+    <t>Pmech0 (pu)</t>
+  </si>
+  <si>
+    <t>x (pu)</t>
+  </si>
+  <si>
+    <t>x' (pu)</t>
+  </si>
+  <si>
+    <t>T' (s)</t>
+  </si>
+  <si>
+    <t>e1 (pu)</t>
+  </si>
+  <si>
+    <t>e2 (pu)</t>
+  </si>
+  <si>
+    <t>S(e1)</t>
+  </si>
+  <si>
+    <t>S(e2)</t>
+  </si>
+  <si>
+    <t>End of AsyncGenSingleCage</t>
+  </si>
+  <si>
+    <t>x'' (pu)</t>
+  </si>
+  <si>
+    <t>T'' (s)</t>
+  </si>
+  <si>
+    <t>End of AsyncGenDoubleCage</t>
   </si>
   <si>
     <t>Base Voltage (V)</t>
@@ -1418,147 +1554,159 @@
       <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25">
         <v>115</v>
@@ -1581,7 +1729,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1604,30 +1752,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1647,131 +1795,143 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1783,7 +1943,7 @@
         <v>0.12</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1798,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K25">
         <v>170</v>
@@ -1809,7 +1969,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1821,7 +1981,7 @@
         <v>0.12</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1836,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26">
         <v>160</v>
@@ -1847,7 +2007,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1859,7 +2019,7 @@
         <v>0.12</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1874,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27">
         <v>120</v>
@@ -1885,7 +2045,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1897,7 +2057,7 @@
         <v>0.12</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1912,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K28">
         <v>120</v>
@@ -1923,7 +2083,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1935,7 +2095,7 @@
         <v>0.12</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1950,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K29">
         <v>170</v>
@@ -1961,7 +2121,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1973,7 +2133,7 @@
         <v>0.12</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -1988,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30">
         <v>230</v>
@@ -1999,7 +2159,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2011,7 +2171,7 @@
         <v>0.12</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>100</v>
@@ -2026,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31">
         <v>128</v>
@@ -2037,7 +2197,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2049,7 +2209,7 @@
         <v>0.12</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2064,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K32">
         <v>17</v>
@@ -2075,7 +2235,7 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2087,7 +2247,7 @@
         <v>0.12</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2102,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K33">
         <v>66</v>
@@ -2113,7 +2273,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2125,7 +2285,7 @@
         <v>0.12</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2140,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K34">
         <v>117</v>
@@ -2151,7 +2311,7 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2163,7 +2323,7 @@
         <v>0.12</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2178,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K35">
         <v>485</v>
@@ -2189,7 +2349,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2201,7 +2361,7 @@
         <v>0.12</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2216,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K36">
         <v>68</v>
@@ -2227,7 +2387,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2239,7 +2399,7 @@
         <v>0.12</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2254,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>290</v>
@@ -2265,7 +2425,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2277,7 +2437,7 @@
         <v>0.12</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2292,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K38">
         <v>170</v>
@@ -2303,64 +2463,67 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2372,7 +2535,7 @@
         <v>0.12</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2387,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L43">
         <v>2.5</v>
@@ -2407,7 +2570,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2419,7 +2582,7 @@
         <v>0.12</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2434,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L44">
         <v>-2</v>
@@ -2454,7 +2617,7 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2466,7 +2629,7 @@
         <v>0.12</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2481,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L45">
         <v>2.5</v>
@@ -2501,73 +2664,76 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2579,7 +2745,7 @@
         <v>0.12</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2594,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M50">
         <v>385</v>
@@ -2623,7 +2789,7 @@
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2635,7 +2801,7 @@
         <v>0.12</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2650,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L51" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M51">
         <v>-80</v>
@@ -2679,7 +2845,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2691,7 +2857,7 @@
         <v>0.12</v>
       </c>
       <c r="E52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2706,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M52">
         <v>33.33333333333334</v>
@@ -2735,7 +2901,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2758,22 +2924,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2793,59 +2959,65 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2854,7 +3026,7 @@
         <v>2.4</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -2865,103 +3037,109 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2976,13 +3154,13 @@
         <v>2.401777119828843</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3005,7 +3183,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3028,27 +3206,27 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3068,71 +3246,77 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3141,10 +3325,10 @@
         <v>91.44</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17">
         <v>0.00082592659</v>
@@ -3158,7 +3342,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3167,10 +3351,10 @@
         <v>243.84</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F18">
         <v>0.00083419083</v>
@@ -3184,67 +3368,70 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3253,16 +3440,16 @@
         <v>152.4</v>
       </c>
       <c r="D23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" t="s">
         <v>177</v>
       </c>
-      <c r="F23" t="s">
-        <v>176</v>
-      </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23">
         <v>0.00082257118</v>
@@ -3294,7 +3481,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3303,16 +3490,16 @@
         <v>91.44</v>
       </c>
       <c r="D24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24">
         <v>0.00082257118</v>
@@ -3344,7 +3531,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3353,16 +3540,16 @@
         <v>91.44</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H25">
         <v>0.00082257118</v>
@@ -3394,100 +3581,103 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V29" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="X29" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -3496,22 +3686,22 @@
         <v>152.4</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="J30">
         <v>0.00046764396</v>
@@ -3570,7 +3760,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -3579,22 +3769,22 @@
         <v>203.3016</v>
       </c>
       <c r="D31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J31">
         <v>0.00021530512</v>
@@ -3653,7 +3843,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3662,22 +3852,22 @@
         <v>609.6</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J32">
         <v>0.00021530512</v>
@@ -3736,7 +3926,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3745,22 +3935,22 @@
         <v>406.2984</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J33">
         <v>0.00021530512</v>
@@ -3819,7 +4009,7 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3828,22 +4018,22 @@
         <v>304.8</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J34">
         <v>0.00021530512</v>
@@ -3902,7 +4092,7 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3911,22 +4101,22 @@
         <v>152.4</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F35" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" t="s">
         <v>100</v>
-      </c>
-      <c r="G35" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" t="s">
-        <v>98</v>
-      </c>
-      <c r="I35" t="s">
-        <v>99</v>
       </c>
       <c r="J35">
         <v>0.0004919526200000001</v>
@@ -3985,64 +4175,67 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4065,22 +4258,22 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -4100,203 +4293,212 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4305,13 +4507,13 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21">
         <v>115</v>
@@ -4320,16 +4522,16 @@
         <v>5000</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M21">
         <v>4.16</v>
@@ -4338,7 +4540,7 @@
         <v>5000</v>
       </c>
       <c r="O21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -4373,7 +4575,7 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4382,13 +4584,13 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G22">
         <v>4.16</v>
@@ -4397,16 +4599,16 @@
         <v>500</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M22">
         <v>0.48</v>
@@ -4415,7 +4617,7 @@
         <v>500</v>
       </c>
       <c r="O22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -4450,7 +4652,7 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4459,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G23">
         <v>4.156921938165305</v>
@@ -4468,10 +4670,10 @@
         <v>1666</v>
       </c>
       <c r="I23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23">
         <v>4.156921938165305</v>
@@ -4480,7 +4682,7 @@
         <v>1666</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P23">
         <v>10</v>
@@ -4515,7 +4717,7 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4524,7 +4726,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G24">
         <v>4.156921938165305</v>
@@ -4533,10 +4735,10 @@
         <v>1666</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M24">
         <v>4.156921938165305</v>
@@ -4545,7 +4747,7 @@
         <v>1666</v>
       </c>
       <c r="O24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P24">
         <v>8</v>
@@ -4580,7 +4782,7 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4589,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G25">
         <v>4.156921938165305</v>
@@ -4598,10 +4800,10 @@
         <v>1666</v>
       </c>
       <c r="I25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M25">
         <v>4.156921938165305</v>
@@ -4610,7 +4812,7 @@
         <v>1666</v>
       </c>
       <c r="O25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P25">
         <v>10</v>
@@ -4645,7 +4847,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4654,7 +4856,7 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G26">
         <v>4.156921938165305</v>
@@ -4663,10 +4865,10 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26">
         <v>0.2078460969082652</v>
@@ -4675,7 +4877,7 @@
         <v>5</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -4710,7 +4912,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4719,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G27">
         <v>4.156921938165305</v>
@@ -4728,10 +4930,10 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M27">
         <v>0.2078460969082652</v>
@@ -4740,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="O27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -4775,100 +4977,103 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4877,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G32">
         <v>4.156921938165305</v>
@@ -4886,10 +5091,10 @@
         <v>5</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M32">
         <v>4.156921938165305</v>
@@ -4898,7 +5103,7 @@
         <v>5</v>
       </c>
       <c r="O32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4939,7 +5144,7 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -4948,6 +5153,595 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -4957,19 +5751,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -4977,7 +5771,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B2">
         <v>2401.777119828843</v>
@@ -4986,18 +5780,18 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E2">
         <v>120</v>
       </c>
       <c r="F2" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B3">
         <v>2401.777119828843</v>
@@ -5006,18 +5800,18 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B4">
         <v>2401.777119828843</v>
@@ -5026,18 +5820,18 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E4">
         <v>-120</v>
       </c>
       <c r="F4" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B5">
         <v>2401.777119828843</v>
@@ -5046,18 +5840,18 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E5">
         <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B6">
         <v>2401.777119828843</v>
@@ -5066,18 +5860,18 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B7">
         <v>2401.777119828843</v>
@@ -5086,18 +5880,18 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E7">
         <v>-120</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B8">
         <v>2401.777119828843</v>
@@ -5106,18 +5900,18 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E8">
         <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B9">
         <v>277.1281292110204</v>
@@ -5126,18 +5920,18 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B10">
         <v>277.1281292110204</v>
@@ -5146,18 +5940,18 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E10">
         <v>-120</v>
       </c>
       <c r="F10" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>277.1281292110204</v>
@@ -5166,18 +5960,18 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E11">
         <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12">
         <v>2401.777119828843</v>
@@ -5186,18 +5980,18 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E12">
         <v>-120</v>
       </c>
       <c r="F12" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <v>2401.777119828843</v>
@@ -5206,18 +6000,18 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E13">
         <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <v>2401.777119828843</v>
@@ -5226,18 +6020,18 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E14">
         <v>-120</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <v>2401.777119828843</v>
@@ -5246,18 +6040,18 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E15">
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B16">
         <v>2401.777119828843</v>
@@ -5266,18 +6060,18 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>2401.777119828843</v>
@@ -5286,18 +6080,18 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E17">
         <v>-120</v>
       </c>
       <c r="F17" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B18">
         <v>2401.777119828843</v>
@@ -5306,18 +6100,18 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E18">
         <v>120</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>2401.777119828843</v>
@@ -5326,18 +6120,18 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>2401.777119828843</v>
@@ -5346,18 +6140,18 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B21">
         <v>2401.777119828843</v>
@@ -5366,18 +6160,18 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E21">
         <v>-120</v>
       </c>
       <c r="F21" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B22">
         <v>2401.777119828843</v>
@@ -5386,18 +6180,18 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E22">
         <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <v>2401.777119828843</v>
@@ -5406,18 +6200,18 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B24">
         <v>2401.777119828843</v>
@@ -5426,18 +6220,18 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E24">
         <v>-120</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <v>2401.777119828843</v>
@@ -5446,18 +6240,18 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E25">
         <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26">
         <v>2401.777119828843</v>
@@ -5466,18 +6260,18 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>2401.777119828843</v>
@@ -5486,18 +6280,18 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E27">
         <v>-120</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28">
         <v>2401.777119828843</v>
@@ -5506,18 +6300,18 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E28">
         <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B29">
         <v>2401.777119828843</v>
@@ -5526,18 +6320,18 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B30">
         <v>2401.777119828843</v>
@@ -5546,18 +6340,18 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E30">
         <v>-120</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B31">
         <v>2401.777119828843</v>
@@ -5566,18 +6360,18 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E31">
         <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B32">
         <v>2401.777119828843</v>
@@ -5586,18 +6380,18 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33">
         <v>2401.777119828843</v>
@@ -5606,18 +6400,18 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E33">
         <v>120</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B34">
         <v>2401.777119828843</v>
@@ -5626,18 +6420,18 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E34">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B35">
         <v>2401.777119828843</v>
@@ -5646,18 +6440,18 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>2401.777119828843</v>
@@ -5666,18 +6460,18 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E36">
         <v>120</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B37">
         <v>2401.777119828843</v>
@@ -5686,18 +6480,18 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B38">
         <v>2401.777119828843</v>
@@ -5706,18 +6500,18 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E38">
         <v>-120</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B39">
         <v>2401.777119828843</v>
@@ -5726,13 +6520,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E39">
         <v>120</v>
       </c>
       <c r="F39" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -5746,18 +6540,18 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E40">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>120.0888559914422</v>
@@ -5766,18 +6560,18 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F41" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B42">
         <v>2401.777119828843</v>
@@ -5786,18 +6580,18 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B43">
         <v>2401.777119828843</v>
@@ -5806,18 +6600,18 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E43">
         <v>-120</v>
       </c>
       <c r="F43" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B44">
         <v>2401.777119828843</v>
@@ -5826,18 +6620,18 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E44">
         <v>120</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B45">
         <v>2401.777119828843</v>
@@ -5846,18 +6640,18 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46">
         <v>2401.777119828843</v>
@@ -5866,18 +6660,18 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E46">
         <v>-120</v>
       </c>
       <c r="F46" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B47">
         <v>2401.777119828843</v>
@@ -5886,18 +6680,18 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E47">
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>66395.28095680696</v>
@@ -5906,18 +6700,18 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>66395.28095680696</v>
@@ -5926,18 +6720,18 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E49">
         <v>-120</v>
       </c>
       <c r="F49" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>66395.28095680696</v>
@@ -5946,18 +6740,18 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E50">
         <v>120</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B51">
         <v>2401.777119828843</v>
@@ -5966,18 +6760,18 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E51">
         <v>120</v>
       </c>
       <c r="F51" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B52">
         <v>2401.777119828843</v>
@@ -5986,18 +6780,18 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B53">
         <v>2401.777119828843</v>
@@ -6006,18 +6800,18 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E53">
         <v>-120</v>
       </c>
       <c r="F53" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B54">
         <v>2401.777119828843</v>
@@ -6026,18 +6820,18 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E54">
         <v>120</v>
       </c>
       <c r="F54" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B55">
         <v>2400</v>
@@ -6046,13 +6840,13 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="E55">
         <v>-120</v>
       </c>
       <c r="F55" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -6060,7 +6854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -6070,27 +6864,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -6098,13 +6892,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -6112,13 +6906,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -6126,13 +6920,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6140,13 +6934,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6154,13 +6948,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6168,13 +6962,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6182,13 +6976,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6196,13 +6990,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6210,13 +7004,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6224,13 +7018,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6238,13 +7032,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6252,13 +7046,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
-        <v>314</v>
+        <v>359</v>
       </c>
       <c r="D14">
         <v>1</v>

--- a/CPYDAR/ieee13x.xlsx
+++ b/CPYDAR/ieee13x.xlsx
@@ -5791,7 +5791,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>2401.777119828843</v>
@@ -5803,7 +5803,7 @@
         <v>342</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>343</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B5">
         <v>2401.777119828843</v>
@@ -5843,7 +5843,7 @@
         <v>342</v>
       </c>
       <c r="E5">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>343</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>2401.777119828843</v>
@@ -5863,7 +5863,7 @@
         <v>342</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F6" t="s">
         <v>343</v>
@@ -5891,7 +5891,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>2401.777119828843</v>
@@ -5903,7 +5903,7 @@
         <v>342</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>343</v>
@@ -5911,7 +5911,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B9">
         <v>277.1281292110204</v>
@@ -5923,7 +5923,7 @@
         <v>342</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
         <v>343</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>277.1281292110204</v>
@@ -5963,7 +5963,7 @@
         <v>342</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
         <v>343</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="B12">
         <v>2401.777119828843</v>
@@ -5983,7 +5983,7 @@
         <v>342</v>
       </c>
       <c r="E12">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
         <v>343</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>2401.777119828843</v>
@@ -6003,7 +6003,7 @@
         <v>342</v>
       </c>
       <c r="E13">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F13" t="s">
         <v>343</v>
@@ -6011,7 +6011,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="B14">
         <v>2401.777119828843</v>
@@ -6023,7 +6023,7 @@
         <v>342</v>
       </c>
       <c r="E14">
-        <v>-120</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>343</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <v>2401.777119828843</v>
@@ -6043,7 +6043,7 @@
         <v>342</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>-120</v>
       </c>
       <c r="F15" t="s">
         <v>343</v>
@@ -6051,7 +6051,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>2401.777119828843</v>
@@ -6063,7 +6063,7 @@
         <v>342</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
         <v>343</v>
@@ -6091,7 +6091,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B18">
         <v>2401.777119828843</v>
@@ -6103,7 +6103,7 @@
         <v>342</v>
       </c>
       <c r="E18">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F18" t="s">
         <v>343</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20">
         <v>2401.777119828843</v>
@@ -6143,7 +6143,7 @@
         <v>342</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
         <v>343</v>
@@ -6171,7 +6171,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>2401.777119828843</v>
@@ -6183,7 +6183,7 @@
         <v>342</v>
       </c>
       <c r="E22">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>343</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>2401.777119828843</v>
@@ -6203,7 +6203,7 @@
         <v>342</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
         <v>343</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B25">
         <v>2401.777119828843</v>
@@ -6243,7 +6243,7 @@
         <v>342</v>
       </c>
       <c r="E25">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>343</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>2401.777119828843</v>
@@ -6263,7 +6263,7 @@
         <v>342</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
         <v>343</v>
@@ -6291,7 +6291,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>2401.777119828843</v>
@@ -6303,7 +6303,7 @@
         <v>342</v>
       </c>
       <c r="E28">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>343</v>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B29">
         <v>2401.777119828843</v>
@@ -6323,7 +6323,7 @@
         <v>342</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F29" t="s">
         <v>343</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B31">
         <v>2401.777119828843</v>
@@ -6363,7 +6363,7 @@
         <v>342</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>343</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B32">
         <v>2401.777119828843</v>
@@ -6383,7 +6383,7 @@
         <v>342</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F32" t="s">
         <v>343</v>
@@ -6391,7 +6391,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B33">
         <v>2401.777119828843</v>
@@ -6403,7 +6403,7 @@
         <v>342</v>
       </c>
       <c r="E33">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>343</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="B34">
         <v>2401.777119828843</v>
@@ -6423,7 +6423,7 @@
         <v>342</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
         <v>343</v>
@@ -6451,7 +6451,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="B36">
         <v>2401.777119828843</v>
@@ -6463,7 +6463,7 @@
         <v>342</v>
       </c>
       <c r="E36">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>343</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B37">
         <v>2401.777119828843</v>
@@ -6483,7 +6483,7 @@
         <v>342</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
         <v>343</v>
@@ -6511,7 +6511,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B39">
         <v>2401.777119828843</v>
@@ -6523,7 +6523,7 @@
         <v>342</v>
       </c>
       <c r="E39">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F39" t="s">
         <v>343</v>
@@ -6571,7 +6571,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B42">
         <v>2401.777119828843</v>
@@ -6583,7 +6583,7 @@
         <v>342</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F42" t="s">
         <v>343</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B44">
         <v>2401.777119828843</v>
@@ -6623,7 +6623,7 @@
         <v>342</v>
       </c>
       <c r="E44">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F44" t="s">
         <v>343</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B45">
         <v>2401.777119828843</v>
@@ -6643,7 +6643,7 @@
         <v>342</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F45" t="s">
         <v>343</v>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B47">
         <v>2401.777119828843</v>
@@ -6683,7 +6683,7 @@
         <v>342</v>
       </c>
       <c r="E47">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F47" t="s">
         <v>343</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>66395.28095680696</v>
@@ -6703,7 +6703,7 @@
         <v>342</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F48" t="s">
         <v>344</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B50">
         <v>66395.28095680696</v>
@@ -6743,7 +6743,7 @@
         <v>342</v>
       </c>
       <c r="E50">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>344</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B52">
         <v>2401.777119828843</v>
@@ -6783,7 +6783,7 @@
         <v>342</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F52" t="s">
         <v>343</v>
@@ -6811,7 +6811,7 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B54">
         <v>2401.777119828843</v>
@@ -6823,7 +6823,7 @@
         <v>342</v>
       </c>
       <c r="E54">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F54" t="s">
         <v>343</v>
